--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H2">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I2">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J2">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>118.8811406996811</v>
+        <v>171.403873244563</v>
       </c>
       <c r="R2">
-        <v>118.8811406996811</v>
+        <v>1542.634859201067</v>
       </c>
       <c r="S2">
-        <v>0.0210413277287334</v>
+        <v>0.01411575599318078</v>
       </c>
       <c r="T2">
-        <v>0.0210413277287334</v>
+        <v>0.01411575599318079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H3">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I3">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J3">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>598.4682265848755</v>
+        <v>697.6847952492783</v>
       </c>
       <c r="R3">
-        <v>598.4682265848755</v>
+        <v>6279.163157243504</v>
       </c>
       <c r="S3">
-        <v>0.1059256835583176</v>
+        <v>0.05745697657508157</v>
       </c>
       <c r="T3">
-        <v>0.1059256835583176</v>
+        <v>0.05745697657508159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H4">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I4">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J4">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>610.749553883821</v>
+        <v>812.0143485723033</v>
       </c>
       <c r="R4">
-        <v>610.749553883821</v>
+        <v>7308.12913715073</v>
       </c>
       <c r="S4">
-        <v>0.1080994129751118</v>
+        <v>0.06687244687320311</v>
       </c>
       <c r="T4">
-        <v>0.1080994129751118</v>
+        <v>0.06687244687320314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H5">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I5">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J5">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>180.264306141267</v>
+        <v>229.0976329981662</v>
       </c>
       <c r="R5">
-        <v>180.264306141267</v>
+        <v>2061.878696983496</v>
       </c>
       <c r="S5">
-        <v>0.03190582056150563</v>
+        <v>0.01886705489673044</v>
       </c>
       <c r="T5">
-        <v>0.03190582056150563</v>
+        <v>0.01886705489673045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2889512642137</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>20.2889512642137</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J6">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>219.8482415931311</v>
+        <v>273.583163585815</v>
       </c>
       <c r="R6">
-        <v>219.8482415931311</v>
+        <v>2462.248472272336</v>
       </c>
       <c r="S6">
-        <v>0.03891196597476153</v>
+        <v>0.02253060626879578</v>
       </c>
       <c r="T6">
-        <v>0.03891196597476153</v>
+        <v>0.02253060626879578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.2889512642137</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>20.2889512642137</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J7">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>1106.754077977967</v>
+        <v>1113.596850858059</v>
       </c>
       <c r="R7">
-        <v>1106.754077977967</v>
+        <v>10022.37165772253</v>
       </c>
       <c r="S7">
-        <v>0.19588956778835</v>
+        <v>0.09170890437848089</v>
       </c>
       <c r="T7">
-        <v>0.19588956778835</v>
+        <v>0.09170890437848091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.2889512642137</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H8">
-        <v>20.2889512642137</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I8">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J8">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>1129.466075820616</v>
+        <v>1296.081880498184</v>
       </c>
       <c r="R8">
-        <v>1129.466075820616</v>
+        <v>11664.73692448365</v>
       </c>
       <c r="S8">
-        <v>0.1999094702486463</v>
+        <v>0.1067372354310295</v>
       </c>
       <c r="T8">
-        <v>0.1999094702486463</v>
+        <v>0.1067372354310295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.2889512642137</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H9">
-        <v>20.2889512642137</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I9">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J9">
-        <v>0.4937147997841498</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>333.364825521646</v>
+        <v>365.670005112609</v>
       </c>
       <c r="R9">
-        <v>333.364825521646</v>
+        <v>3291.030046013481</v>
       </c>
       <c r="S9">
-        <v>0.05900379577239197</v>
+        <v>0.03011430528661341</v>
       </c>
       <c r="T9">
-        <v>0.05900379577239197</v>
+        <v>0.03011430528661341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>9.834440634491189</v>
+        <v>0.004706</v>
       </c>
       <c r="H10">
-        <v>9.834440634491189</v>
+        <v>0.014118</v>
       </c>
       <c r="I10">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465284E-05</v>
       </c>
       <c r="J10">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465285E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>106.5646248733654</v>
+        <v>0.063254611914</v>
       </c>
       <c r="R10">
-        <v>106.5646248733654</v>
+        <v>0.5692915072260001</v>
       </c>
       <c r="S10">
-        <v>0.0188613701303089</v>
+        <v>5.209256070587034E-06</v>
       </c>
       <c r="T10">
-        <v>0.0188613701303089</v>
+        <v>5.209256070587036E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>9.834440634491189</v>
+        <v>0.004706</v>
       </c>
       <c r="H11">
-        <v>9.834440634491189</v>
+        <v>0.014118</v>
       </c>
       <c r="I11">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465284E-05</v>
       </c>
       <c r="J11">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465285E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>536.4647553791227</v>
+        <v>0.25747248371</v>
       </c>
       <c r="R11">
-        <v>536.4647553791227</v>
+        <v>2.31725235339</v>
       </c>
       <c r="S11">
-        <v>0.09495139991432799</v>
+        <v>2.120383096491E-05</v>
       </c>
       <c r="T11">
-        <v>0.09495139991432799</v>
+        <v>2.120383096491001E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.834440634491189</v>
+        <v>0.004706</v>
       </c>
       <c r="H12">
-        <v>9.834440634491189</v>
+        <v>0.014118</v>
       </c>
       <c r="I12">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465284E-05</v>
       </c>
       <c r="J12">
-        <v>0.2393129553921818</v>
+        <v>5.805425597465285E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>547.4736927837977</v>
+        <v>0.29966447966</v>
       </c>
       <c r="R12">
-        <v>547.4736927837977</v>
+        <v>2.69698031694</v>
       </c>
       <c r="S12">
-        <v>0.09689992310743947</v>
+        <v>2.46785011017143E-05</v>
       </c>
       <c r="T12">
-        <v>0.09689992310743947</v>
+        <v>2.467850110171431E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.004706</v>
+      </c>
+      <c r="H13">
+        <v>0.014118</v>
+      </c>
+      <c r="I13">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J13">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N13">
+        <v>53.896616</v>
+      </c>
+      <c r="O13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q13">
+        <v>0.08454582496533333</v>
+      </c>
+      <c r="R13">
+        <v>0.760912424688</v>
+      </c>
+      <c r="S13">
+        <v>6.962667837441496E-06</v>
+      </c>
+      <c r="T13">
+        <v>6.962667837441497E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>47.951367</v>
+      </c>
+      <c r="H14">
+        <v>143.854101</v>
+      </c>
+      <c r="I14">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J14">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.441269</v>
+      </c>
+      <c r="N14">
+        <v>40.323807</v>
+      </c>
+      <c r="O14">
+        <v>0.08973082133481231</v>
+      </c>
+      <c r="P14">
+        <v>0.08973082133481232</v>
+      </c>
+      <c r="Q14">
+        <v>644.5272227647231</v>
+      </c>
+      <c r="R14">
+        <v>5800.745004882508</v>
+      </c>
+      <c r="S14">
+        <v>0.05307924981676514</v>
+      </c>
+      <c r="T14">
+        <v>0.05307924981676516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>47.951367</v>
+      </c>
+      <c r="H15">
+        <v>143.854101</v>
+      </c>
+      <c r="I15">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J15">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.711535</v>
+      </c>
+      <c r="N15">
+        <v>164.134605</v>
+      </c>
+      <c r="O15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="P15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="Q15">
+        <v>2623.492893918345</v>
+      </c>
+      <c r="R15">
+        <v>23611.43604526511</v>
+      </c>
+      <c r="S15">
+        <v>0.2160545432223467</v>
+      </c>
+      <c r="T15">
+        <v>0.2160545432223468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="H13">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="I13">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="J13">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="N13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="O13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="P13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="Q13">
-        <v>161.5882725295312</v>
-      </c>
-      <c r="R13">
-        <v>161.5882725295312</v>
-      </c>
-      <c r="S13">
-        <v>0.02860026224010546</v>
-      </c>
-      <c r="T13">
-        <v>0.02860026224010546</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>47.951367</v>
+      </c>
+      <c r="H16">
+        <v>143.854101</v>
+      </c>
+      <c r="I16">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J16">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.67711</v>
+      </c>
+      <c r="N16">
+        <v>191.03133</v>
+      </c>
+      <c r="O16">
+        <v>0.4250937452800914</v>
+      </c>
+      <c r="P16">
+        <v>0.4250937452800915</v>
+      </c>
+      <c r="Q16">
+        <v>3053.40447110937</v>
+      </c>
+      <c r="R16">
+        <v>27480.64023998433</v>
+      </c>
+      <c r="S16">
+        <v>0.2514593844747571</v>
+      </c>
+      <c r="T16">
+        <v>0.2514593844747571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>47.951367</v>
+      </c>
+      <c r="H17">
+        <v>143.854101</v>
+      </c>
+      <c r="I17">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J17">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N17">
+        <v>53.896616</v>
+      </c>
+      <c r="O17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q17">
+        <v>861.4721379580241</v>
+      </c>
+      <c r="R17">
+        <v>7753.249241622217</v>
+      </c>
+      <c r="S17">
+        <v>0.07094548252704069</v>
+      </c>
+      <c r="T17">
+        <v>0.07094548252704072</v>
       </c>
     </row>
   </sheetData>
